--- a/Capitulo000_ClaseOnline/ClasesNODO_CO01/Clase20Borrador/EsquemaDiagramaCompleto.xlsx
+++ b/Capitulo000_ClaseOnline/ClasesNODO_CO01/Clase20Borrador/EsquemaDiagramaCompleto.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5843A84B-0101-4F2A-8B6A-9951C7831D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,16 +135,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -160,8 +159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6743700" y="1362075"/>
-          <a:ext cx="2619375" cy="561975"/>
+          <a:off x="6657975" y="1114425"/>
+          <a:ext cx="2619375" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -194,7 +193,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> =&gt; HTML + CSS + JAVASCRIPT</a:t>
+            <a:t> =&gt; HTML + CSS + JAVASCRIPT (fetch)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
@@ -974,15 +973,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>27432</xdr:rowOff>
+      <xdr:rowOff>179832</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -997,8 +996,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905125" y="3543300"/>
-          <a:ext cx="1533525" cy="484632"/>
+          <a:off x="2828925" y="3629025"/>
+          <a:ext cx="2238375" cy="551307"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1225,6 +1224,379 @@
             <a:rPr lang="en-US" sz="1400"/>
             <a:t>Fetch</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectángulo 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229349" y="4695825"/>
+          <a:ext cx="4943475" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>promesa =&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> fetch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1) hacer la solicitud al EndPoint</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2) convertir los resultados de la solicitud anterior. en formato JSON</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Elipse 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12706349" y="4124325"/>
+          <a:ext cx="2133601" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>VectorContribuyentes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56007</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Flecha derecha 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286749" y="6048375"/>
+          <a:ext cx="4619625" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GET = PARA RECUPERAR DATOS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>84582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Flecha derecha 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296275" y="6457950"/>
+          <a:ext cx="4619625" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>POST = INGRESAR DATOS NUEVOS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flecha derecha 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296275" y="6829425"/>
+          <a:ext cx="4619625" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PUT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> =&gt; MODIFICAR DATOS QUE YA EXISTEN</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>84582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Flecha derecha 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="7219950"/>
+          <a:ext cx="4619625" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DELETE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> =&gt; ELIMINAR DATOS</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1495,11 +1867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Capitulo000_ClaseOnline/ClasesNODO_CO01/Clase20Borrador/EsquemaDiagramaCompleto.xlsx
+++ b/Capitulo000_ClaseOnline/ClasesNODO_CO01/Clase20Borrador/EsquemaDiagramaCompleto.xlsx
@@ -165,6 +165,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1871,7 +1874,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Capitulo000_ClaseOnline/ClasesNODO_CO01/Clase20Borrador/EsquemaDiagramaCompleto.xlsx
+++ b/Capitulo000_ClaseOnline/ClasesNODO_CO01/Clase20Borrador/EsquemaDiagramaCompleto.xlsx
@@ -136,15 +136,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -159,7 +159,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6657975" y="1114425"/>
+          <a:off x="6667500" y="1247775"/>
           <a:ext cx="2619375" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -343,20 +343,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2000"/>
-            <a:t>SERVIDOR</a:t>
+            <a:t>MONGO</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="2000" baseline="0"/>
-            <a:t> DE</a:t>
+            <a:t> DB</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000"/>
-            <a:t>BASE DE DATOS</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -367,13 +360,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -388,7 +381,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9496425" y="3133724"/>
+          <a:off x="9496425" y="3143249"/>
           <a:ext cx="2400300" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
@@ -637,15 +630,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>438149</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>132207</xdr:rowOff>
+      <xdr:rowOff>189357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -660,7 +653,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857499" y="600075"/>
+          <a:off x="2876549" y="657225"/>
           <a:ext cx="1533525" cy="484632"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1172,15 +1165,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>603637</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>186356</xdr:rowOff>
+      <xdr:colOff>336937</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>464988</xdr:colOff>
+      <xdr:colOff>198288</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>99488</xdr:rowOff>
+      <xdr:rowOff>137588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1195,7 +1188,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="2151885">
-          <a:off x="2432437" y="5139356"/>
+          <a:off x="2165737" y="5177456"/>
           <a:ext cx="2299751" cy="484632"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1314,16 +1307,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1332,7 +1325,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12706349" y="4124325"/>
+          <a:off x="12144374" y="3981450"/>
           <a:ext cx="2133601" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1874,7 +1867,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
